--- a/scripts/populate_roster/roster.xlsx
+++ b/scripts/populate_roster/roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbova/GithubProjects/PUO-Website/scripts/populate_roster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1631BC88-67AF-B44E-8282-6184675124A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DF8CE4-D495-0940-A60B-96CAB98EE2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>Daniel Wey</t>
-  </si>
-  <si>
-    <t>Bass</t>
   </si>
   <si>
     <t>Luke Begley</t>
@@ -455,6 +452,9 @@
   <si>
     <t>Bassoon</t>
   </si>
+  <si>
+    <t>Double Bass</t>
+  </si>
 </sst>
 </file>
 
@@ -682,8 +682,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +905,10 @@
   <dimension ref="A1:W979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -987,7 +987,7 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="10" t="s">
         <v>24</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="10" t="s">
         <v>35</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A32" s="28"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="10" t="s">
         <v>37</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A34" s="29"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="14" t="s">
         <v>38</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="10" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A37" s="28"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="10" t="s">
         <v>42</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="W37" s="9"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A38" s="28"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="10" t="s">
         <v>43</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A39" s="28"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="10" t="s">
         <v>44</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="10" t="s">
         <v>45</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A41" s="28"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="10" t="s">
         <v>46</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="W41" s="9"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="W42" s="9"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="10" t="s">
         <v>48</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A44" s="29"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="14" t="s">
         <v>49</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="W45" s="9"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A46" s="28"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -2355,7 +2355,7 @@
       <c r="W46" s="9"/>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="10" t="s">
         <v>53</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="W47" s="9"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A48" s="28"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="W48" s="9"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A49" s="28"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="W49" s="9"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A50" s="28"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="W50" s="9"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A51" s="28"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="10" t="s">
         <v>57</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="W51" s="9"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A52" s="28"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="W52" s="9"/>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A53" s="28"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="10" t="s">
         <v>59</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="W53" s="9"/>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A54" s="28"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -2603,7 +2603,7 @@
       <c r="W54" s="9"/>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A55" s="28"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="W55" s="9"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A56" s="29"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="14" t="s">
         <v>62</v>
       </c>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1">
       <c r="A57" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="C57" s="16">
         <v>2022</v>
@@ -2698,9 +2698,9 @@
       <c r="W57" s="9"/>
     </row>
     <row r="58" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A58" s="28"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="11">
         <v>2023</v>
@@ -2729,9 +2729,9 @@
       <c r="W58" s="9"/>
     </row>
     <row r="59" spans="1:23" ht="13">
-      <c r="A59" s="28"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="11">
         <v>2023</v>
@@ -2760,9 +2760,9 @@
       <c r="W59" s="9"/>
     </row>
     <row r="60" spans="1:23" ht="13">
-      <c r="A60" s="28"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="11">
         <v>2022</v>
@@ -2791,9 +2791,9 @@
       <c r="W60" s="9"/>
     </row>
     <row r="61" spans="1:23" ht="13">
-      <c r="A61" s="28"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="11">
         <v>2023</v>
@@ -2822,9 +2822,9 @@
       <c r="W61" s="9"/>
     </row>
     <row r="62" spans="1:23" ht="13">
-      <c r="A62" s="28"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="11">
         <v>2021</v>
@@ -2853,9 +2853,9 @@
       <c r="W62" s="9"/>
     </row>
     <row r="63" spans="1:23" ht="13">
-      <c r="A63" s="28"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="11">
         <v>2022</v>
@@ -2884,9 +2884,9 @@
       <c r="W63" s="9"/>
     </row>
     <row r="64" spans="1:23" ht="13">
-      <c r="A64" s="28"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="11">
         <v>2020</v>
@@ -2915,9 +2915,9 @@
       <c r="W64" s="9"/>
     </row>
     <row r="65" spans="1:23" ht="13">
-      <c r="A65" s="28"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="11">
         <v>2021</v>
@@ -2946,9 +2946,9 @@
       <c r="W65" s="9"/>
     </row>
     <row r="66" spans="1:23" ht="13">
-      <c r="A66" s="29"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>9</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="67" spans="1:23" ht="13">
       <c r="A67" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="16">
         <v>2021</v>
@@ -3010,9 +3010,9 @@
       <c r="W67" s="9"/>
     </row>
     <row r="68" spans="1:23" ht="13">
-      <c r="A68" s="28"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="11">
         <v>2022</v>
@@ -3041,9 +3041,9 @@
       <c r="W68" s="9"/>
     </row>
     <row r="69" spans="1:23" ht="13">
-      <c r="A69" s="28"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="11">
         <v>2020</v>
@@ -3072,9 +3072,9 @@
       <c r="W69" s="9"/>
     </row>
     <row r="70" spans="1:23" ht="13">
-      <c r="A70" s="28"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="11">
         <v>2023</v>
@@ -3103,9 +3103,9 @@
       <c r="W70" s="9"/>
     </row>
     <row r="71" spans="1:23" ht="13">
-      <c r="A71" s="28"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="11">
         <v>2023</v>
@@ -3134,9 +3134,9 @@
       <c r="W71" s="9"/>
     </row>
     <row r="72" spans="1:23" ht="13">
-      <c r="A72" s="28"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="11">
         <v>2021</v>
@@ -3165,9 +3165,9 @@
       <c r="W72" s="9"/>
     </row>
     <row r="73" spans="1:23" ht="13">
-      <c r="A73" s="28"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" s="11">
         <v>2023</v>
@@ -3196,9 +3196,9 @@
       <c r="W73" s="9"/>
     </row>
     <row r="74" spans="1:23" ht="13">
-      <c r="A74" s="29"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="15">
         <v>2020</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="75" spans="1:23" ht="13">
       <c r="A75" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="16">
         <v>2022</v>
@@ -3260,9 +3260,9 @@
       <c r="W75" s="9"/>
     </row>
     <row r="76" spans="1:23" ht="13">
-      <c r="A76" s="28"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" s="11">
         <v>2023</v>
@@ -3291,9 +3291,9 @@
       <c r="W76" s="9"/>
     </row>
     <row r="77" spans="1:23" ht="13">
-      <c r="A77" s="28"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="11">
         <v>2023</v>
@@ -3322,9 +3322,9 @@
       <c r="W77" s="9"/>
     </row>
     <row r="78" spans="1:23" ht="13">
-      <c r="A78" s="28"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="11">
         <v>2023</v>
@@ -3353,9 +3353,9 @@
       <c r="W78" s="9"/>
     </row>
     <row r="79" spans="1:23" ht="13">
-      <c r="A79" s="28"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="11">
         <v>2023</v>
@@ -3384,9 +3384,9 @@
       <c r="W79" s="9"/>
     </row>
     <row r="80" spans="1:23" ht="13">
-      <c r="A80" s="28"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="11">
         <v>2022</v>
@@ -3415,9 +3415,9 @@
       <c r="W80" s="9"/>
     </row>
     <row r="81" spans="1:23" ht="13">
-      <c r="A81" s="29"/>
+      <c r="A81" s="28"/>
       <c r="B81" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" s="15">
         <v>2020</v>
@@ -3447,10 +3447,10 @@
     </row>
     <row r="82" spans="1:23" ht="13">
       <c r="A82" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="16">
         <v>2020</v>
@@ -3479,9 +3479,9 @@
       <c r="W82" s="9"/>
     </row>
     <row r="83" spans="1:23" ht="13">
-      <c r="A83" s="28"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="11">
         <v>2020</v>
@@ -3510,9 +3510,9 @@
       <c r="W83" s="9"/>
     </row>
     <row r="84" spans="1:23" ht="13">
-      <c r="A84" s="28"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="11">
         <v>2021</v>
@@ -3541,9 +3541,9 @@
       <c r="W84" s="9"/>
     </row>
     <row r="85" spans="1:23" ht="13">
-      <c r="A85" s="28"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="11">
         <v>2020</v>
@@ -3572,9 +3572,9 @@
       <c r="W85" s="9"/>
     </row>
     <row r="86" spans="1:23" ht="13">
-      <c r="A86" s="28"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="11">
         <v>2022</v>
@@ -3603,9 +3603,9 @@
       <c r="W86" s="9"/>
     </row>
     <row r="87" spans="1:23" ht="13">
-      <c r="A87" s="28"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="11">
         <v>2023</v>
@@ -3634,9 +3634,9 @@
       <c r="W87" s="9"/>
     </row>
     <row r="88" spans="1:23" ht="13">
-      <c r="A88" s="28"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="11">
         <v>2020</v>
@@ -3665,9 +3665,9 @@
       <c r="W88" s="9"/>
     </row>
     <row r="89" spans="1:23" ht="13">
-      <c r="A89" s="29"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" s="15">
         <v>2020</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="90" spans="1:23" ht="13">
       <c r="A90" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" s="16">
         <v>2023</v>
@@ -3729,9 +3729,9 @@
       <c r="W90" s="9"/>
     </row>
     <row r="91" spans="1:23" ht="13">
-      <c r="A91" s="28"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="11">
         <v>2023</v>
@@ -3760,9 +3760,9 @@
       <c r="W91" s="9"/>
     </row>
     <row r="92" spans="1:23" ht="13">
-      <c r="A92" s="28"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="11">
         <v>2023</v>
@@ -3791,9 +3791,9 @@
       <c r="W92" s="9"/>
     </row>
     <row r="93" spans="1:23" ht="13">
-      <c r="A93" s="29"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="17">
@@ -3821,10 +3821,10 @@
     </row>
     <row r="94" spans="1:23" ht="13">
       <c r="A94" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="C94" s="16">
         <v>2023</v>
@@ -3853,9 +3853,9 @@
       <c r="W94" s="9"/>
     </row>
     <row r="95" spans="1:23" ht="13">
-      <c r="A95" s="28"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" s="11">
         <v>2023</v>
@@ -3884,9 +3884,9 @@
       <c r="W95" s="9"/>
     </row>
     <row r="96" spans="1:23" ht="13">
-      <c r="A96" s="28"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" s="11">
         <v>2021</v>
@@ -3915,9 +3915,9 @@
       <c r="W96" s="9"/>
     </row>
     <row r="97" spans="1:23" ht="13">
-      <c r="A97" s="28"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="11">
         <v>2022</v>
@@ -3946,9 +3946,9 @@
       <c r="W97" s="9"/>
     </row>
     <row r="98" spans="1:23" ht="13">
-      <c r="A98" s="28"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" s="11">
         <v>2021</v>
@@ -3977,9 +3977,9 @@
       <c r="W98" s="9"/>
     </row>
     <row r="99" spans="1:23" ht="13">
-      <c r="A99" s="29"/>
+      <c r="A99" s="28"/>
       <c r="B99" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" s="15">
         <v>2020</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="100" spans="1:23" ht="13">
       <c r="A100" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="C100" s="16">
         <v>2022</v>
@@ -4041,9 +4041,9 @@
       <c r="W100" s="9"/>
     </row>
     <row r="101" spans="1:23" ht="13">
-      <c r="A101" s="28"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="11">
         <v>2023</v>
@@ -4072,9 +4072,9 @@
       <c r="W101" s="9"/>
     </row>
     <row r="102" spans="1:23" ht="13">
-      <c r="A102" s="28"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102" s="11">
         <v>2020</v>
@@ -4103,9 +4103,9 @@
       <c r="W102" s="9"/>
     </row>
     <row r="103" spans="1:23" ht="13">
-      <c r="A103" s="28"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103" s="11">
         <v>2021</v>
@@ -4134,9 +4134,9 @@
       <c r="W103" s="9"/>
     </row>
     <row r="104" spans="1:23" ht="13">
-      <c r="A104" s="28"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" s="11">
         <v>2023</v>
@@ -4165,9 +4165,9 @@
       <c r="W104" s="9"/>
     </row>
     <row r="105" spans="1:23" ht="13">
-      <c r="A105" s="29"/>
+      <c r="A105" s="28"/>
       <c r="B105" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="15">
         <v>2023</v>
@@ -4197,10 +4197,10 @@
     </row>
     <row r="106" spans="1:23" ht="13">
       <c r="A106" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="C106" s="16">
         <v>2022</v>
@@ -4229,9 +4229,9 @@
       <c r="W106" s="9"/>
     </row>
     <row r="107" spans="1:23" ht="13">
-      <c r="A107" s="28"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C107" s="11">
         <v>2023</v>
@@ -4260,9 +4260,9 @@
       <c r="W107" s="9"/>
     </row>
     <row r="108" spans="1:23" ht="13">
-      <c r="A108" s="28"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>9</v>
@@ -4291,9 +4291,9 @@
       <c r="W108" s="9"/>
     </row>
     <row r="109" spans="1:23" ht="13">
-      <c r="A109" s="28"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>9</v>
@@ -4322,9 +4322,9 @@
       <c r="W109" s="9"/>
     </row>
     <row r="110" spans="1:23" ht="13">
-      <c r="A110" s="29"/>
+      <c r="A110" s="28"/>
       <c r="B110" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C110" s="15">
         <v>2020</v>
@@ -4354,10 +4354,10 @@
     </row>
     <row r="111" spans="1:23" ht="13">
       <c r="A111" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C111" s="16">
         <v>2020</v>
@@ -4386,9 +4386,9 @@
       <c r="W111" s="9"/>
     </row>
     <row r="112" spans="1:23" ht="13">
-      <c r="A112" s="29"/>
+      <c r="A112" s="28"/>
       <c r="B112" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C112" s="15">
         <v>2022</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="113" spans="1:23" ht="13">
       <c r="A113" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="C113" s="16">
         <v>2020</v>
@@ -4450,9 +4450,9 @@
       <c r="W113" s="9"/>
     </row>
     <row r="114" spans="1:23" ht="13">
-      <c r="A114" s="28"/>
+      <c r="A114" s="29"/>
       <c r="B114" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" s="11">
         <v>2020</v>
@@ -4481,9 +4481,9 @@
       <c r="W114" s="9"/>
     </row>
     <row r="115" spans="1:23" ht="13">
-      <c r="A115" s="28"/>
+      <c r="A115" s="29"/>
       <c r="B115" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="11">
         <v>2022</v>
@@ -4512,9 +4512,9 @@
       <c r="W115" s="9"/>
     </row>
     <row r="116" spans="1:23" ht="13">
-      <c r="A116" s="28"/>
+      <c r="A116" s="29"/>
       <c r="B116" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" s="11">
         <v>2021</v>
@@ -4543,9 +4543,9 @@
       <c r="W116" s="9"/>
     </row>
     <row r="117" spans="1:23" ht="13">
-      <c r="A117" s="28"/>
+      <c r="A117" s="29"/>
       <c r="B117" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C117" s="11">
         <v>2020</v>
@@ -4574,9 +4574,9 @@
       <c r="W117" s="9"/>
     </row>
     <row r="118" spans="1:23" ht="13">
-      <c r="A118" s="28"/>
+      <c r="A118" s="29"/>
       <c r="B118" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="11">
         <v>2022</v>
@@ -4605,9 +4605,9 @@
       <c r="W118" s="9"/>
     </row>
     <row r="119" spans="1:23" ht="13">
-      <c r="A119" s="29"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C119" s="15">
         <v>2021</v>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="120" spans="1:23" ht="13">
       <c r="A120" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="C120" s="16">
         <v>2021</v>
@@ -4669,9 +4669,9 @@
       <c r="W120" s="9"/>
     </row>
     <row r="121" spans="1:23" ht="13">
-      <c r="A121" s="28"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="11">
         <v>2022</v>
@@ -4700,9 +4700,9 @@
       <c r="W121" s="9"/>
     </row>
     <row r="122" spans="1:23" ht="13">
-      <c r="A122" s="29"/>
+      <c r="A122" s="28"/>
       <c r="B122" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="15">
         <v>2022</v>
@@ -4732,10 +4732,10 @@
     </row>
     <row r="123" spans="1:23" ht="14">
       <c r="A123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="C123" s="22">
         <v>2022</v>
